--- a/ProcessedData/conf_svm_transcript_3.xlsx
+++ b/ProcessedData/conf_svm_transcript_3.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,13 +405,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.3938975689077541</v>
+        <v>-0.3924681354102658</v>
       </c>
       <c r="C2">
-        <v>-0.1592883145270584</v>
+        <v>0.05693695082948495</v>
       </c>
       <c r="D2">
-        <v>-0.5769844656807184</v>
+        <v>-0.554388880863429</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -431,13 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7840769834385403</v>
+        <v>-0.1521109006240468</v>
       </c>
       <c r="C3">
-        <v>-1.662283549033649</v>
+        <v>-4.508971495724191</v>
       </c>
       <c r="D3">
-        <v>-1.451980773938152</v>
+        <v>-1.389149009302689</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -448,13 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08396390595691872</v>
+        <v>-0.2015427373354819</v>
       </c>
       <c r="C4">
-        <v>-0.9500825977122486</v>
+        <v>-2.730928612962233</v>
       </c>
       <c r="D4">
-        <v>-1.144201537332974</v>
+        <v>-1.052548552493564</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -465,13 +465,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004251186598200118</v>
+        <v>-0.394192879738708</v>
       </c>
       <c r="C5">
-        <v>-1.084392861539065</v>
+        <v>-3.62648307553184</v>
       </c>
       <c r="D5">
-        <v>-1.402744912237348</v>
+        <v>-1.376481444349396</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -482,13 +485,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.879447339170927</v>
+        <v>0.1243302226353506</v>
       </c>
       <c r="C6">
-        <v>-3.162496973659869</v>
+        <v>-9.284897894460405</v>
       </c>
       <c r="D6">
-        <v>-2.385901196987967</v>
+        <v>-2.25577157980058</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -499,13 +505,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.2424174117429109</v>
+        <v>-1.019121485440616</v>
       </c>
       <c r="C7">
-        <v>-1.977018979853629</v>
+        <v>-4.635559025528943</v>
       </c>
       <c r="D7">
-        <v>-2.192354098065947</v>
+        <v>-1.339294145845316</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -516,16 +525,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.812205529123133</v>
+        <v>-1.156449224807685</v>
       </c>
       <c r="C8">
-        <v>-0.9829942781669164</v>
+        <v>-1.463741219787312</v>
       </c>
       <c r="D8">
-        <v>-1.49922837019299</v>
+        <v>-0.7905205338475816</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -533,13 +545,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.7854167986142985</v>
+        <v>-0.8901462750297209</v>
       </c>
       <c r="C9">
-        <v>-0.1473779948485755</v>
+        <v>-0.8705517597408506</v>
       </c>
       <c r="D9">
-        <v>-0.8492676542183119</v>
+        <v>-1.014017075951259</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -550,13 +565,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.2683415924299611</v>
+        <v>-0.6686969298780019</v>
       </c>
       <c r="C10">
-        <v>-0.7970039577709322</v>
+        <v>-1.989764671180559</v>
       </c>
       <c r="D10">
-        <v>-1.17870129155474</v>
+        <v>-1.043167049165082</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -567,13 +585,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.04100298896583532</v>
+        <v>-0.4862114673549489</v>
       </c>
       <c r="C11">
-        <v>-1.119302097908018</v>
+        <v>-3.463810496582047</v>
       </c>
       <c r="D11">
-        <v>-1.429488908459157</v>
+        <v>-1.325051972039989</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -584,13 +605,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.3935602410454682</v>
+        <v>-0.9259310135559311</v>
       </c>
       <c r="C12">
-        <v>-1.878483777402729</v>
+        <v>-7.48905621098069</v>
       </c>
       <c r="D12">
-        <v>-2.393906393748429</v>
+        <v>-2.375151468514647</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -601,13 +625,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.1580836170741741</v>
+        <v>-0.1991595011231723</v>
       </c>
       <c r="C13">
-        <v>-1.701533500548277</v>
+        <v>-7.659908612535228</v>
       </c>
       <c r="D13">
-        <v>-2.271464785607683</v>
+        <v>-2.213310039390667</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -618,13 +645,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1785886856790008</v>
+        <v>0.1139068516586028</v>
       </c>
       <c r="C14">
-        <v>-2.265843563306604</v>
+        <v>-9.178029911817188</v>
       </c>
       <c r="D14">
-        <v>-2.64816479634396</v>
+        <v>-2.327687501263052</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -635,13 +665,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.6508752138170322</v>
+        <v>-0.7949241805904188</v>
       </c>
       <c r="C15">
-        <v>-0.6679231763427417</v>
+        <v>-1.529145969100187</v>
       </c>
       <c r="D15">
-        <v>-1.22914623393845</v>
+        <v>-0.9078758083227527</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -652,13 +685,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5824031568399806</v>
+        <v>0.4466742335688763</v>
       </c>
       <c r="C16">
-        <v>-2.64538844705776</v>
+        <v>-10.13642069036411</v>
       </c>
       <c r="D16">
-        <v>-2.756178605396674</v>
+        <v>-2.339000381073298</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -669,13 +705,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.696163442536025</v>
+        <v>-2.502653794151112</v>
       </c>
       <c r="C17">
-        <v>-12.60486198790707</v>
+        <v>-31.46958501896115</v>
       </c>
       <c r="D17">
-        <v>-10.35729651374082</v>
+        <v>-5.12626282711514</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -686,13 +725,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7666417258147341</v>
+        <v>-0.3500452165003221</v>
       </c>
       <c r="C18">
-        <v>-2.412311208173756</v>
+        <v>-8.284396962843674</v>
       </c>
       <c r="D18">
-        <v>-2.30306938139223</v>
+        <v>-2.303987458507492</v>
+      </c>
+      <c r="E18">
+        <v>19</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -703,13 +745,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.549968576448506</v>
+        <v>0.5569058771092075</v>
       </c>
       <c r="C19">
-        <v>-3.710908064159491</v>
+        <v>-13.01350296668958</v>
       </c>
       <c r="D19">
-        <v>-3.276771575096823</v>
+        <v>-2.875763508345616</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -720,13 +765,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.03698177149414694</v>
+        <v>-0.2153216927780234</v>
       </c>
       <c r="C20">
-        <v>-0.8168926455745322</v>
+        <v>-2.371293328421548</v>
       </c>
       <c r="D20">
-        <v>-1.079127416120456</v>
+        <v>-0.9854531615845241</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -737,13 +785,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.4072682407240378</v>
+        <v>-0.9935101665966874</v>
       </c>
       <c r="C21">
-        <v>-1.056408555512235</v>
+        <v>-5.698104935488473</v>
       </c>
       <c r="D21">
-        <v>-1.768844816171493</v>
+        <v>-2.279469696716832</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -754,13 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9345704622400192</v>
+        <v>-0.05798059924866633</v>
       </c>
       <c r="C22">
-        <v>-3.432763320335116</v>
+        <v>-13.19870284718734</v>
       </c>
       <c r="D22">
-        <v>-3.358645448443004</v>
+        <v>-3.218645379704316</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -771,16 +825,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.7478728287663996</v>
+        <v>-1.462830946181123</v>
       </c>
       <c r="C23">
-        <v>-1.232031900049456</v>
+        <v>-1.128235691178132</v>
       </c>
       <c r="D23">
-        <v>-1.592852571827148</v>
+        <v>-0.6695029883243564</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -788,13 +845,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.2261550655575034</v>
+        <v>-0.7855699702757122</v>
       </c>
       <c r="C24">
-        <v>-0.8230215929596197</v>
+        <v>-1.613021313813358</v>
       </c>
       <c r="D24">
-        <v>-1.136382083816137</v>
+        <v>-0.9626220432206161</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -805,13 +865,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.3811170752953679</v>
+        <v>-0.3758471874383592</v>
       </c>
       <c r="C25">
-        <v>-0.2027576952795074</v>
+        <v>-0.1329474614115888</v>
       </c>
       <c r="D25">
-        <v>-0.618317211015685</v>
+        <v>-0.5873748251859863</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -822,16 +885,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.7422829305808973</v>
+        <v>-0.9460245261070137</v>
       </c>
       <c r="C26">
-        <v>-0.4614108164899391</v>
+        <v>-1.326207461570779</v>
       </c>
       <c r="D26">
-        <v>-1.055845412274855</v>
+        <v>-1.002237115643827</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -839,13 +905,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.09659147438646631</v>
+        <v>-0.8953637610159821</v>
       </c>
       <c r="C27">
-        <v>-1.752892092314439</v>
+        <v>-4.171969391700207</v>
       </c>
       <c r="D27">
-        <v>-1.932768693869549</v>
+        <v>-1.317611463263138</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -856,13 +925,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.7555789492503566</v>
+        <v>-0.7318337771422457</v>
       </c>
       <c r="C28">
-        <v>-0.2725822999776628</v>
+        <v>-0.5541184088998728</v>
       </c>
       <c r="D28">
-        <v>-0.925647013253259</v>
+        <v>-0.7728234080835132</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -873,13 +945,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.4372891346446097</v>
+        <v>-1.178436693744064</v>
       </c>
       <c r="C29">
-        <v>-1.873624376817357</v>
+        <v>-3.936683178854828</v>
       </c>
       <c r="D29">
-        <v>-2.1460053778638</v>
+        <v>-1.178757782055426</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -890,13 +965,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.6370756384095012</v>
+        <v>-1.471780853342746</v>
       </c>
       <c r="C30">
-        <v>-4.200430439816505</v>
+        <v>-9.451584748291838</v>
       </c>
       <c r="D30">
-        <v>-3.693077052121832</v>
+        <v>-2.004530783001183</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -907,16 +985,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.8692385364284345</v>
+        <v>-1.008782362253598</v>
       </c>
       <c r="C31">
-        <v>-0.6212279984581219</v>
+        <v>-0.8499552784240182</v>
       </c>
       <c r="D31">
-        <v>-1.232044518266736</v>
+        <v>-0.7339973179040782</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -924,13 +1005,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.02692069656778406</v>
+        <v>-0.1322169529184903</v>
       </c>
       <c r="C32">
-        <v>-1.034239549336777</v>
+        <v>-3.320715389626917</v>
       </c>
       <c r="D32">
-        <v>-1.285791142795289</v>
+        <v>-1.15038288319731</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -941,13 +1025,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.01593570112089293</v>
+        <v>-0.7986971470364355</v>
       </c>
       <c r="C33">
-        <v>-1.567340038665694</v>
+        <v>-4.535204480803459</v>
       </c>
       <c r="D33">
-        <v>-1.500228067470408</v>
+        <v>-1.463258948276936</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -958,13 +1045,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.2302511652261201</v>
+        <v>-0.4035316861263846</v>
       </c>
       <c r="C34">
-        <v>-1.389128259299439</v>
+        <v>-4.359070073670644</v>
       </c>
       <c r="D34">
-        <v>-1.566207304785914</v>
+        <v>-1.501646669918592</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -975,13 +1065,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.8179555058299215</v>
+        <v>-0.8784377513197457</v>
       </c>
       <c r="C35">
-        <v>-0.2143671346306369</v>
+        <v>-0.763536455233517</v>
       </c>
       <c r="D35">
-        <v>-0.7940940290778696</v>
+        <v>-0.8947134375861779</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -992,16 +1085,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.8470593310577444</v>
+        <v>-1.465247980079519</v>
       </c>
       <c r="C36">
-        <v>-1.269273213805546</v>
+        <v>-1.352149047594514</v>
       </c>
       <c r="D36">
-        <v>-1.686539278052777</v>
+        <v>-0.6919474586450223</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1009,13 +1105,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.5064345359616518</v>
+        <v>-0.7004885590757812</v>
       </c>
       <c r="C37">
-        <v>-0.595772626217698</v>
+        <v>-1.467905191633597</v>
       </c>
       <c r="D37">
-        <v>-1.108715531491012</v>
+        <v>-0.9368608103114948</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1026,13 +1125,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.1392257203932366</v>
+        <v>-0.3482892765532764</v>
       </c>
       <c r="C38">
-        <v>-0.4691375995549401</v>
+        <v>-0.8522180304929577</v>
       </c>
       <c r="D38">
-        <v>-0.7484654534407222</v>
+        <v>-0.7215656070040659</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1043,13 +1145,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.7824853627005569</v>
+        <v>-1.009127327421518</v>
       </c>
       <c r="C39">
-        <v>-0.4653629503182685</v>
+        <v>-0.2352725691736942</v>
       </c>
       <c r="D39">
-        <v>-1.02817193648652</v>
+        <v>-0.6530368532308543</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1060,13 +1165,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.215391082014832</v>
+        <v>-0.4771926348194678</v>
       </c>
       <c r="C40">
-        <v>-1.647943923223763</v>
+        <v>-4.973304398977453</v>
       </c>
       <c r="D40">
-        <v>-1.801735521639149</v>
+        <v>-1.570388510226955</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1077,16 +1185,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.9658000927534737</v>
+        <v>-2.542042067626386</v>
       </c>
       <c r="C41">
-        <v>-2.831181285827565</v>
+        <v>-2.834600599174497</v>
       </c>
       <c r="D41">
-        <v>-2.891325234564221</v>
+        <v>-0.6197200354820404</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1094,13 +1205,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-1.807309482784207</v>
+        <v>-3.758012952201751</v>
       </c>
       <c r="C42">
-        <v>-6.492203948744039</v>
+        <v>-44.87035011510483</v>
       </c>
       <c r="D42">
-        <v>-10.29962351887078</v>
+        <v>-13.38906724104739</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1111,13 +1225,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.6467194353138396</v>
+        <v>-0.7069578718604304</v>
       </c>
       <c r="C43">
-        <v>-0.2119941641003033</v>
+        <v>-0.3220994000137471</v>
       </c>
       <c r="D43">
-        <v>-0.8116821286915694</v>
+        <v>-0.7558727546099944</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1128,16 +1245,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.89807267001443</v>
+        <v>-1.073899187898521</v>
       </c>
       <c r="C44">
-        <v>-0.4752180257786675</v>
+        <v>-1.027785960775182</v>
       </c>
       <c r="D44">
-        <v>-1.033472642920804</v>
+        <v>-0.878900033103047</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1145,16 +1265,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.8026887962462028</v>
+        <v>-1.350388085176993</v>
       </c>
       <c r="C45">
-        <v>-1.107651082027936</v>
+        <v>-1.631558748615212</v>
       </c>
       <c r="D45">
-        <v>-0.9410409782118349</v>
+        <v>-0.6778990909301237</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1162,16 +1285,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-1.577088570010211</v>
+        <v>-1.338143095995883</v>
       </c>
       <c r="C46">
-        <v>0.1008233733527594</v>
+        <v>-2.819376387535512</v>
       </c>
       <c r="D46">
-        <v>-1.276052031693642</v>
+        <v>-1.877181906856299</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1179,13 +1305,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-1.618026890845999</v>
+        <v>-1.473668001259084</v>
       </c>
       <c r="C47">
-        <v>0.1921837906559094</v>
+        <v>-0.2309577428466799</v>
       </c>
       <c r="D47">
-        <v>-0.6995437678323536</v>
+        <v>-0.913766211859056</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1196,16 +1325,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-1.214663452311701</v>
+        <v>-1.394340370678271</v>
       </c>
       <c r="C48">
-        <v>-0.3701563270968381</v>
+        <v>-2.320942000485638</v>
       </c>
       <c r="D48">
-        <v>-1.095505625693933</v>
+        <v>-1.416242496025409</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1213,16 +1345,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-1.158137247370226</v>
+        <v>-1.47839913832122</v>
       </c>
       <c r="C49">
-        <v>-0.5263199174815409</v>
+        <v>-1.337200595174215</v>
       </c>
       <c r="D49">
-        <v>-0.9647537367365681</v>
+        <v>-0.9518170377729565</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1230,13 +1365,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.06508260527394233</v>
+        <v>-0.5460934606054908</v>
       </c>
       <c r="C50">
-        <v>-1.511307713970058</v>
+        <v>-4.43768010642954</v>
       </c>
       <c r="D50">
-        <v>-1.730091246524911</v>
+        <v>-1.460889203257392</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1247,13 +1385,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.5996697556706341</v>
+        <v>-0.7314234254158469</v>
       </c>
       <c r="C51">
-        <v>-2.866765704926714</v>
+        <v>-7.698790680571242</v>
       </c>
       <c r="D51">
-        <v>-2.679381012477275</v>
+        <v>-1.936619790082567</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1264,13 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.4702158786936423</v>
+        <v>-0.5190498571681397</v>
       </c>
       <c r="C52">
-        <v>-1.049363815831568</v>
+        <v>-3.584293943520205</v>
       </c>
       <c r="D52">
-        <v>-1.599796836659402</v>
+        <v>-1.293481294237635</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -1281,13 +1425,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.1962689297823712</v>
+        <v>-0.2789634921362846</v>
       </c>
       <c r="C53">
-        <v>-0.5532945511794689</v>
+        <v>-1.442004807157642</v>
       </c>
       <c r="D53">
-        <v>-0.8900550589030369</v>
+        <v>-0.8193999377078125</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -1298,13 +1445,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1829037972847387</v>
+        <v>-0.6570450453132616</v>
       </c>
       <c r="C54">
-        <v>-2.320886848789596</v>
+        <v>-6.605279856306038</v>
       </c>
       <c r="D54">
-        <v>-2.414843539714016</v>
+        <v>-1.757755044436438</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -1315,13 +1465,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5982116310075194</v>
+        <v>-0.2790590400501868</v>
       </c>
       <c r="C55">
-        <v>-2.465973739255929</v>
+        <v>-7.981609468127091</v>
       </c>
       <c r="D55">
-        <v>-2.453948651658721</v>
+        <v>-2.093347145112248</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1332,13 +1485,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.03698177149414694</v>
+        <v>-0.2153216927780234</v>
       </c>
       <c r="C56">
-        <v>-0.8168926455745322</v>
+        <v>-2.371293328421548</v>
       </c>
       <c r="D56">
-        <v>-1.079127416120456</v>
+        <v>-0.9854531615845241</v>
+      </c>
+      <c r="E56">
+        <v>20</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1349,13 +1505,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.4415440088070448</v>
+        <v>-0.4655321919234737</v>
       </c>
       <c r="C57">
-        <v>-1.054477703099076</v>
+        <v>-3.760861926703844</v>
       </c>
       <c r="D57">
-        <v>-1.60781543187084</v>
+        <v>-1.335492794809076</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1366,16 +1525,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.8156635768338769</v>
+        <v>-1.190583943014128</v>
       </c>
       <c r="C58">
-        <v>-1.13997350603562</v>
+        <v>-1.867827001678689</v>
       </c>
       <c r="D58">
-        <v>-1.642728395871106</v>
+        <v>-0.8400109719512552</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1383,13 +1545,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.052227453449486</v>
+        <v>-0.4475328235676028</v>
       </c>
       <c r="C59">
-        <v>-2.822355584510952</v>
+        <v>-9.01292885850801</v>
       </c>
       <c r="D59">
-        <v>-2.537181401991996</v>
+        <v>-2.425792718811676</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1400,13 +1565,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.4131726693045077</v>
+        <v>-0.5883756415851313</v>
       </c>
       <c r="C60">
-        <v>-0.9652068642070395</v>
+        <v>-2.994507166855521</v>
       </c>
       <c r="D60">
-        <v>-1.458207231197088</v>
+        <v>-1.195646963533888</v>
+      </c>
+      <c r="E60">
+        <v>20</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1417,13 +1585,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.07532325233130555</v>
+        <v>-0.2651845366937432</v>
       </c>
       <c r="C61">
-        <v>-0.6864845033171852</v>
+        <v>-1.801640091698326</v>
       </c>
       <c r="D61">
-        <v>-0.9551291801155555</v>
+        <v>-0.8864953286168523</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -1434,13 +1605,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.4338903493174719</v>
+        <v>-0.5581607164125055</v>
       </c>
       <c r="C62">
-        <v>-0.5693125374192918</v>
+        <v>-1.808303704119849</v>
       </c>
       <c r="D62">
-        <v>-1.092887013100078</v>
+        <v>-1.02951695221418</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -1451,13 +1625,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2.633945499382358</v>
+        <v>0.3336776150728977</v>
       </c>
       <c r="C63">
-        <v>-6.083424369579681</v>
+        <v>-23.17722968995545</v>
       </c>
       <c r="D63">
-        <v>-5.337583807788877</v>
+        <v>-5.285115224263975</v>
+      </c>
+      <c r="E63">
+        <v>21</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -1468,13 +1645,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.436196455971952</v>
+        <v>-0.1896020693314099</v>
       </c>
       <c r="C64">
-        <v>-3.34482824255838</v>
+        <v>-10.30569819661235</v>
       </c>
       <c r="D64">
-        <v>-2.859444106953073</v>
+        <v>-2.532383430087461</v>
+      </c>
+      <c r="E64">
+        <v>21</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -1485,13 +1665,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.6550937013350284</v>
+        <v>-0.8060296763372512</v>
       </c>
       <c r="C65">
-        <v>-0.6667877708033524</v>
+        <v>-2.441398208494097</v>
       </c>
       <c r="D65">
-        <v>-1.296329518982445</v>
+        <v>-1.223553365609056</v>
+      </c>
+      <c r="E65">
+        <v>21</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1502,13 +1685,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.3386357544714362</v>
+        <v>-0.1573638784784925</v>
       </c>
       <c r="C66">
-        <v>-1.25993188274013</v>
+        <v>-3.640083594284675</v>
       </c>
       <c r="D66">
-        <v>-1.315682525092978</v>
+        <v>-1.219725278634201</v>
+      </c>
+      <c r="E66">
+        <v>21</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -1519,13 +1705,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.2671156027282275</v>
+        <v>-0.6186933020625425</v>
       </c>
       <c r="C67">
-        <v>-1.725765521562149</v>
+        <v>-5.541133345762715</v>
       </c>
       <c r="D67">
-        <v>-1.756202096475087</v>
+        <v>-1.763410844699502</v>
+      </c>
+      <c r="E67">
+        <v>21</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -1536,13 +1725,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.2550935341243227</v>
+        <v>-0.4095200905864571</v>
       </c>
       <c r="C68">
-        <v>-0.6976117428386622</v>
+        <v>-0.961568282968179</v>
       </c>
       <c r="D68">
-        <v>-0.7194327209460298</v>
+        <v>-0.7590455603823245</v>
+      </c>
+      <c r="E68">
+        <v>21</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -1553,13 +1745,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.06846399365850919</v>
+        <v>-0.1127540124172184</v>
       </c>
       <c r="C69">
-        <v>-0.9879883587039591</v>
+        <v>-3.34084892956838</v>
       </c>
       <c r="D69">
-        <v>-1.303382512252704</v>
+        <v>-1.149259380933385</v>
+      </c>
+      <c r="E69">
+        <v>21</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -1570,13 +1765,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.2405316455591197</v>
+        <v>-0.1930167597473863</v>
       </c>
       <c r="C70">
-        <v>-0.6809208835564466</v>
+        <v>-2.2216759960634</v>
       </c>
       <c r="D70">
-        <v>-1.072977409700318</v>
+        <v>-0.9502202127341163</v>
+      </c>
+      <c r="E70">
+        <v>21</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -1587,13 +1785,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1459679801163105</v>
+        <v>-0.5209036300447961</v>
       </c>
       <c r="C71">
-        <v>-1.146655906451456</v>
+        <v>-3.226132327164714</v>
       </c>
       <c r="D71">
-        <v>-1.334143687183019</v>
+        <v>-1.299414433603347</v>
+      </c>
+      <c r="E71">
+        <v>21</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -1604,13 +1805,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.573653516206865</v>
+        <v>0.0136675718907347</v>
       </c>
       <c r="C72">
-        <v>-2.678770165622192</v>
+        <v>-7.616205264173667</v>
       </c>
       <c r="D72">
-        <v>-2.049089227888097</v>
+        <v>-1.956651076369714</v>
+      </c>
+      <c r="E72">
+        <v>21</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -1621,13 +1825,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.5677466157611814</v>
+        <v>-0.1464269155653163</v>
       </c>
       <c r="C73">
-        <v>-1.482842406263114</v>
+        <v>-4.169469751124971</v>
       </c>
       <c r="D73">
-        <v>-1.404498022183049</v>
+        <v>-1.320930116129723</v>
+      </c>
+      <c r="E73">
+        <v>21</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -1638,13 +1845,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2.299327580913259</v>
+        <v>0.09634130454598316</v>
       </c>
       <c r="C74">
-        <v>-3.477909878448489</v>
+        <v>-9.774016971417774</v>
       </c>
       <c r="D74">
-        <v>-2.439533955163208</v>
+        <v>-2.359223421823954</v>
+      </c>
+      <c r="E74">
+        <v>21</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -1655,13 +1865,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.8233623720468771</v>
+        <v>-0.378274941352283</v>
       </c>
       <c r="C75">
-        <v>-2.925521830177761</v>
+        <v>-9.707144484839368</v>
       </c>
       <c r="D75">
-        <v>-2.5983713849735</v>
+        <v>-2.441011593482296</v>
+      </c>
+      <c r="E75">
+        <v>21</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1672,13 +1885,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.4480993364011697</v>
+        <v>-0.41548790858131</v>
       </c>
       <c r="C76">
-        <v>-0.698717496760739</v>
+        <v>-2.763384925856426</v>
       </c>
       <c r="D76">
-        <v>-1.28093107648936</v>
+        <v>-1.20313355879009</v>
+      </c>
+      <c r="E76">
+        <v>21</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -1689,13 +1905,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.811499683635819</v>
+        <v>0.7535152602427218</v>
       </c>
       <c r="C77">
-        <v>-4.322261204574147</v>
+        <v>-15.46186678588208</v>
       </c>
       <c r="D77">
-        <v>-3.796505894993975</v>
+        <v>-3.305704286802786</v>
+      </c>
+      <c r="E77">
+        <v>21</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1706,13 +1925,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.04976226510653314</v>
+        <v>-0.23194264074993</v>
       </c>
       <c r="C78">
-        <v>-0.7734232648220832</v>
+        <v>-2.181408916180474</v>
       </c>
       <c r="D78">
-        <v>-1.037794670785489</v>
+        <v>-0.9524672172619669</v>
+      </c>
+      <c r="E78">
+        <v>21</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -1723,13 +1945,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.3538903953752609</v>
+        <v>-0.6193439385789421</v>
       </c>
       <c r="C79">
-        <v>-0.9803804956225498</v>
+        <v>-4.055567017160154</v>
       </c>
       <c r="D79">
-        <v>-1.518718363966844</v>
+        <v>-1.575299387940819</v>
+      </c>
+      <c r="E79">
+        <v>21</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -1740,13 +1965,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.503296274636203</v>
+        <v>-0.4634532775972207</v>
       </c>
       <c r="C80">
-        <v>-3.438554266723734</v>
+        <v>-9.5666858612882</v>
       </c>
       <c r="D80">
-        <v>-2.811016724218834</v>
+        <v>-2.36148303097148</v>
+      </c>
+      <c r="E80">
+        <v>21</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -1757,16 +1985,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.3555560880705955</v>
+        <v>-0.3426052914945459</v>
       </c>
       <c r="C81">
-        <v>-0.2896964567844055</v>
+        <v>-0.5127162858937364</v>
       </c>
       <c r="D81">
-        <v>-0.7009827016856184</v>
+        <v>-0.6533467138311008</v>
+      </c>
+      <c r="E81">
+        <v>21</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1774,13 +2005,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.1796886525926147</v>
+        <v>-0.528012045477896</v>
       </c>
       <c r="C82">
-        <v>-1.510787665885833</v>
+        <v>-5.315724958566575</v>
       </c>
       <c r="D82">
-        <v>-1.725267337819759</v>
+        <v>-1.784663534275077</v>
+      </c>
+      <c r="E82">
+        <v>21</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -1791,13 +2025,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2.033751286252768</v>
+        <v>0.6120216988793732</v>
       </c>
       <c r="C83">
-        <v>-4.243667872710357</v>
+        <v>-14.45204410485232</v>
       </c>
       <c r="D83">
-        <v>-3.537068059946897</v>
+        <v>-3.144145071981776</v>
+      </c>
+      <c r="E83">
+        <v>21</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -1808,13 +2045,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.1136647331684641</v>
+        <v>-0.3150473806094631</v>
       </c>
       <c r="C84">
-        <v>-0.5560763610598382</v>
+        <v>-1.231986854975105</v>
       </c>
       <c r="D84">
-        <v>-0.8311309441106556</v>
+        <v>-0.7875374956491805</v>
+      </c>
+      <c r="E84">
+        <v>21</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -1825,13 +2065,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.0973006241580967</v>
+        <v>-0.9427518792565963</v>
       </c>
       <c r="C85">
-        <v>-2.255433630806855</v>
+        <v>-6.236733203824648</v>
       </c>
       <c r="D85">
-        <v>-1.949654211576357</v>
+        <v>-1.575276865538501</v>
+      </c>
+      <c r="E85">
+        <v>21</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -1842,13 +2085,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.25328119467406</v>
+        <v>0.2058333486651628</v>
       </c>
       <c r="C86">
-        <v>-3.497905735576435</v>
+        <v>-12.42632697621155</v>
       </c>
       <c r="D86">
-        <v>-3.262800713451</v>
+        <v>-2.923697709662772</v>
+      </c>
+      <c r="E86">
+        <v>21</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -1859,13 +2105,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.60608809659834</v>
+        <v>-0.09656407164959652</v>
       </c>
       <c r="C87">
-        <v>-1.613250548520461</v>
+        <v>-4.739122987848192</v>
       </c>
       <c r="D87">
-        <v>-1.528496258187948</v>
+        <v>-1.419887949097395</v>
+      </c>
+      <c r="E87">
+        <v>21</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -1876,13 +2125,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.645353266674799</v>
+        <v>0.5374429366079356</v>
       </c>
       <c r="C88">
-        <v>-3.757159254792309</v>
+        <v>-12.99336942674812</v>
       </c>
       <c r="D88">
-        <v>-3.259180205639408</v>
+        <v>-2.876887010609542</v>
+      </c>
+      <c r="E88">
+        <v>21</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -1893,13 +2145,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.045608090625854</v>
+        <v>0.04449848250946747</v>
       </c>
       <c r="C89">
-        <v>-2.273636689448304</v>
+        <v>-6.957335314916687</v>
       </c>
       <c r="D89">
-        <v>-1.971715093835304</v>
+        <v>-1.819089787759859</v>
+      </c>
+      <c r="E89">
+        <v>21</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -1910,16 +2165,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.3427755944582093</v>
+        <v>-0.3259843435226393</v>
       </c>
       <c r="C90">
-        <v>-0.3331658375368545</v>
+        <v>-0.7026006981348102</v>
       </c>
       <c r="D90">
-        <v>-0.7423154470205851</v>
+        <v>-0.6863326581536581</v>
+      </c>
+      <c r="E90">
+        <v>22</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -1927,13 +2185,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.1026656345088948</v>
+        <v>-0.3207313656681935</v>
       </c>
       <c r="C91">
-        <v>-0.7355175038303727</v>
+        <v>-1.571488599574326</v>
       </c>
       <c r="D91">
-        <v>-0.8786136958657593</v>
+        <v>-0.8557563888221457</v>
+      </c>
+      <c r="E91">
+        <v>22</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -1944,13 +2205,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.3481307152157476</v>
+        <v>-0.7813389691881851</v>
       </c>
       <c r="C92">
-        <v>-0.5902759730841279</v>
+        <v>-1.954020464344273</v>
       </c>
       <c r="D92">
-        <v>-1.071597581831065</v>
+        <v>-1.196797104266201</v>
+      </c>
+      <c r="E92">
+        <v>22</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -1961,13 +2225,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.3811170752953679</v>
+        <v>-0.3758471874383592</v>
       </c>
       <c r="C93">
-        <v>-0.2027576952795074</v>
+        <v>-0.1329474614115888</v>
       </c>
       <c r="D93">
-        <v>-0.618317211015685</v>
+        <v>-0.5873748251859863</v>
+      </c>
+      <c r="E93">
+        <v>22</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -1978,13 +2245,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.1925863454739942</v>
+        <v>-0.5958078850452115</v>
       </c>
       <c r="C94">
-        <v>-1.498251541331472</v>
+        <v>-6.673750079251075</v>
       </c>
       <c r="D94">
-        <v>-2.047692037238368</v>
+        <v>-2.183776684112366</v>
+      </c>
+      <c r="E94">
+        <v>22</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -1995,16 +2265,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.5596657312019016</v>
+        <v>-0.5309417221220265</v>
       </c>
       <c r="C95">
-        <v>-0.1505138421199942</v>
+        <v>-0.6503394337953843</v>
       </c>
       <c r="D95">
-        <v>-0.7654363427965442</v>
+        <v>-0.8567696217834003</v>
+      </c>
+      <c r="E95">
+        <v>22</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2012,13 +2285,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.1962689297823712</v>
+        <v>-0.2789634921362846</v>
       </c>
       <c r="C96">
-        <v>-0.5532945511794689</v>
+        <v>-1.442004807157642</v>
       </c>
       <c r="D96">
-        <v>-0.8900550589030369</v>
+        <v>-0.8193999377078125</v>
+      </c>
+      <c r="E96">
+        <v>22</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2029,13 +2305,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.09608455978403263</v>
+        <v>-0.1227862064449559</v>
       </c>
       <c r="C97">
-        <v>-1.626701439622303</v>
+        <v>-6.298050684731413</v>
       </c>
       <c r="D97">
-        <v>-1.981613420667673</v>
+        <v>-1.841870148470256</v>
+      </c>
+      <c r="E97">
+        <v>22</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2046,13 +2325,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.1451469553328264</v>
+        <v>-0.2124797002486581</v>
       </c>
       <c r="C98">
-        <v>-0.727172074189265</v>
+        <v>-2.201542456121937</v>
       </c>
       <c r="D98">
-        <v>-1.055386040242904</v>
+        <v>-0.9513437149980416</v>
+      </c>
+      <c r="E98">
+        <v>22</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2063,13 +2345,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.7083320454974295</v>
+        <v>0.03640351212565646</v>
       </c>
       <c r="C99">
-        <v>-1.961005594540053</v>
+        <v>-6.258198285776782</v>
       </c>
       <c r="D99">
-        <v>-1.859158220867682</v>
+        <v>-1.683775503677853</v>
+      </c>
+      <c r="E99">
+        <v>22</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -2080,16 +2365,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-1.352687526673944</v>
+        <v>-3.707353859813328</v>
       </c>
       <c r="C100">
-        <v>-4.190079399331879</v>
+        <v>-3.6197826383767</v>
       </c>
       <c r="D100">
-        <v>-4.021003718419937</v>
+        <v>-0.3983900419158649</v>
+      </c>
+      <c r="E100">
+        <v>22</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2097,13 +2385,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.3938975689077541</v>
+        <v>-0.3924681354102658</v>
       </c>
       <c r="C101">
-        <v>-0.1592883145270584</v>
+        <v>0.05693695082948495</v>
       </c>
       <c r="D101">
-        <v>-0.5769844656807184</v>
+        <v>-0.554388880863429</v>
+      </c>
+      <c r="E101">
+        <v>22</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -2114,16 +2405,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.4736102882664727</v>
+        <v>-0.5851182778134918</v>
       </c>
       <c r="C102">
-        <v>-0.2935985783538753</v>
+        <v>-0.8386175117401222</v>
       </c>
       <c r="D102">
-        <v>-0.8355278405850924</v>
+        <v>-0.8783217727192613</v>
+      </c>
+      <c r="E102">
+        <v>22</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2131,13 +2425,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.2296495458492727</v>
+        <v>-0.578861444344327</v>
       </c>
       <c r="C103">
-        <v>-0.7036166692858582</v>
+        <v>-1.957342061301586</v>
       </c>
       <c r="D103">
-        <v>-1.097588578210497</v>
+        <v>-1.06514231655367</v>
+      </c>
+      <c r="E103">
+        <v>22</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -2148,13 +2445,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.2597744119984454</v>
+        <v>-0.739661138842537</v>
       </c>
       <c r="C104">
-        <v>-0.9842628964879399</v>
+        <v>-3.165672187682722</v>
       </c>
       <c r="D104">
-        <v>-1.217282018786784</v>
+        <v>-1.307835635375409</v>
+      </c>
+      <c r="E104">
+        <v>22</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2165,13 +2465,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.247390904231916</v>
+        <v>-0.3454472840239111</v>
       </c>
       <c r="C105">
-        <v>-0.3794170281696728</v>
+        <v>-0.682467158193347</v>
       </c>
       <c r="D105">
-        <v>-0.7247240775631703</v>
+        <v>-0.6874561604175834</v>
+      </c>
+      <c r="E105">
+        <v>22</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -2182,16 +2485,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.4891579001863762</v>
+        <v>-0.6342697388930257</v>
       </c>
       <c r="C106">
-        <v>-0.4054407953186108</v>
+        <v>-1.052239906214015</v>
       </c>
       <c r="D106">
-        <v>-0.9362466796185231</v>
+        <v>-0.8952186819894596</v>
+      </c>
+      <c r="E106">
+        <v>22</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2199,13 +2505,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.09082316462971507</v>
+        <v>-0.04911221305895713</v>
       </c>
       <c r="C107">
-        <v>-1.251586453099022</v>
+        <v>-4.270137450832285</v>
       </c>
       <c r="D107">
-        <v>-1.492454869470122</v>
+        <v>-1.315312604810097</v>
+      </c>
+      <c r="E107">
+        <v>22</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2216,13 +2525,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.2108308183475742</v>
+        <v>-0.3235733581975587</v>
       </c>
       <c r="C108">
-        <v>-0.8252380752156401</v>
+        <v>-1.741239471873937</v>
       </c>
       <c r="D108">
-        <v>-0.9023550717433112</v>
+        <v>-0.8898658354086283</v>
+      </c>
+      <c r="E108">
+        <v>22</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -2233,13 +2545,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.3938975689077541</v>
+        <v>-0.3924681354102658</v>
       </c>
       <c r="C109">
-        <v>-0.1592883145270584</v>
+        <v>0.05693695082948495</v>
       </c>
       <c r="D109">
-        <v>-0.5769844656807184</v>
+        <v>-0.554388880863429</v>
+      </c>
+      <c r="E109">
+        <v>22</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -2250,13 +2565,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.45432110172482</v>
+        <v>-0.4560394471830155</v>
       </c>
       <c r="C110">
-        <v>-0.8623672452355194</v>
+        <v>-3.169786608453444</v>
       </c>
       <c r="D110">
-        <v>-1.430224867406351</v>
+        <v>-1.251054334937435</v>
+      </c>
+      <c r="E110">
+        <v>22</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -2267,16 +2585,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.7054256047855176</v>
+        <v>-1.188613320247046</v>
       </c>
       <c r="C111">
-        <v>-1.22469118696633</v>
+        <v>-2.035840948449069</v>
       </c>
       <c r="D111">
-        <v>-1.662124447819502</v>
+        <v>-0.8752976650049835</v>
+      </c>
+      <c r="E111">
+        <v>22</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2284,13 +2605,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.2660926327838921</v>
+        <v>-0.2262586556911995</v>
       </c>
       <c r="C112">
-        <v>-0.5939821220515487</v>
+        <v>-1.841907171581253</v>
       </c>
       <c r="D112">
-        <v>-0.9903119190303851</v>
+        <v>-0.8842483240890018</v>
+      </c>
+      <c r="E112">
+        <v>22</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -2301,16 +2625,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.8428718102898664</v>
+        <v>-0.7516090235967076</v>
       </c>
       <c r="C113">
-        <v>-0.4399782478901417</v>
+        <v>-3.005694496132868</v>
       </c>
       <c r="D113">
-        <v>-1.227246055585907</v>
+        <v>-1.468482635062053</v>
+      </c>
+      <c r="E113">
+        <v>22</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2318,13 +2645,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.389757728920981</v>
+        <v>-0.09088008659086605</v>
       </c>
       <c r="C114">
-        <v>-1.433809405749926</v>
+        <v>-4.39962124324897</v>
       </c>
       <c r="D114">
-        <v>-1.481013506432844</v>
+        <v>-1.35166905592443</v>
+      </c>
+      <c r="E114">
+        <v>22</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -2335,13 +2665,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.4403729112495459</v>
+        <v>-0.8566188428076321</v>
       </c>
       <c r="C115">
-        <v>-0.7782131533536399</v>
+        <v>-3.294143893032306</v>
       </c>
       <c r="D115">
-        <v>-1.301880139220521</v>
+        <v>-1.543656837320118</v>
+      </c>
+      <c r="E115">
+        <v>22</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -2352,13 +2685,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.6983260925272311</v>
+        <v>-0.6809557898988414</v>
       </c>
       <c r="C116">
-        <v>-2.59132678763368</v>
+        <v>-9.851859600631782</v>
       </c>
       <c r="D116">
-        <v>-2.649486861909619</v>
+        <v>-2.878158296307635</v>
+      </c>
+      <c r="E116">
+        <v>22</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -2369,13 +2705,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.3683365816829817</v>
+        <v>-0.3592262394664525</v>
       </c>
       <c r="C117">
-        <v>-0.2462270760319564</v>
+        <v>-0.3228318736526626</v>
       </c>
       <c r="D117">
-        <v>-0.6596499563506517</v>
+        <v>-0.6203607695085436</v>
+      </c>
+      <c r="E117">
+        <v>22</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -2386,13 +2725,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.4514225527662227</v>
+        <v>-0.5887679880294784</v>
       </c>
       <c r="C118">
-        <v>-2.91928297308177</v>
+        <v>-10.28788022601739</v>
       </c>
       <c r="D118">
-        <v>-2.902219044255403</v>
+        <v>-2.700368790476865</v>
+      </c>
+      <c r="E118">
+        <v>22</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2403,13 +2745,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.1264452267808504</v>
+        <v>-0.3316683285813697</v>
       </c>
       <c r="C119">
-        <v>-0.5126069803073892</v>
+        <v>-1.042102442734031</v>
       </c>
       <c r="D119">
-        <v>-0.7897981987756888</v>
+        <v>-0.7545515513266232</v>
+      </c>
+      <c r="E119">
+        <v>22</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -2420,13 +2765,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-1.28307104456236</v>
+        <v>-1.187991342509301</v>
       </c>
       <c r="C120">
-        <v>0.09689023231564808</v>
+        <v>-0.5504620399552133</v>
       </c>
       <c r="D120">
-        <v>-0.7370962816512295</v>
+        <v>-0.9785318035925107</v>
+      </c>
+      <c r="E120">
+        <v>22</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -2437,13 +2785,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.3938975689077541</v>
+        <v>-0.3924681354102658</v>
       </c>
       <c r="C121">
-        <v>-0.1592883145270584</v>
+        <v>0.05693695082948495</v>
       </c>
       <c r="D121">
-        <v>-0.5769844656807184</v>
+        <v>-0.554388880863429</v>
+      </c>
+      <c r="E121">
+        <v>23</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -2454,13 +2805,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.179348596183212</v>
+        <v>-0.2210056778367538</v>
       </c>
       <c r="C122">
-        <v>-0.9963337883450669</v>
+        <v>-2.710795073020769</v>
       </c>
       <c r="D122">
-        <v>-1.126610167875559</v>
+        <v>-1.053672054757489</v>
+      </c>
+      <c r="E122">
+        <v>23</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2471,13 +2825,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.2875137800218914</v>
+        <v>-0.223847670366119</v>
       </c>
       <c r="C123">
-        <v>-1.086054359730334</v>
+        <v>-2.88054594532038</v>
       </c>
       <c r="D123">
-        <v>-1.150351543753111</v>
+        <v>-1.087781501343972</v>
+      </c>
+      <c r="E123">
+        <v>23</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -2488,13 +2845,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.5294051349240227</v>
+        <v>-0.1962897594810362</v>
       </c>
       <c r="C124">
-        <v>-1.352434264005767</v>
+        <v>-3.599816514401749</v>
       </c>
       <c r="D124">
-        <v>-1.280499786178148</v>
+        <v>-1.221972283162052</v>
+      </c>
+      <c r="E124">
+        <v>23</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -2505,13 +2865,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.0694020173917157</v>
+        <v>-0.4009941129983614</v>
       </c>
       <c r="C125">
-        <v>-0.4284500286828603</v>
+        <v>-0.452315666069347</v>
       </c>
       <c r="D125">
-        <v>-0.6482085933133741</v>
+        <v>-0.6567172206228767</v>
+      </c>
+      <c r="E125">
+        <v>23</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -2522,13 +2885,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.6050972357745696</v>
+        <v>-0.4652392508115073</v>
       </c>
       <c r="C126">
-        <v>-2.341079653253349</v>
+        <v>-7.777675853507198</v>
       </c>
       <c r="D126">
-        <v>-2.236509298068948</v>
+        <v>-2.165918510647965</v>
+      </c>
+      <c r="E126">
+        <v>23</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -2539,13 +2905,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.3357555442567165</v>
+        <v>-0.6756616073679742</v>
       </c>
       <c r="C127">
-        <v>-1.203457515890464</v>
+        <v>-3.390617887510049</v>
       </c>
       <c r="D127">
-        <v>-1.61453315492188</v>
+        <v>-1.238020178630766</v>
+      </c>
+      <c r="E127">
+        <v>23</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2556,13 +2925,16 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.8233564880089054</v>
+        <v>0.185992043872816</v>
       </c>
       <c r="C128">
-        <v>-2.352230021312094</v>
+        <v>-7.967157995946446</v>
       </c>
       <c r="D128">
-        <v>-2.231152928882381</v>
+        <v>-1.980649002580869</v>
+      </c>
+      <c r="E128">
+        <v>23</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -2573,13 +2945,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.2698637350599936</v>
+        <v>-1.432607844897853</v>
       </c>
       <c r="C129">
-        <v>-4.424166006767364</v>
+        <v>-22.45567590530184</v>
       </c>
       <c r="D129">
-        <v>-5.6831505331939</v>
+        <v>-6.489499125084895</v>
+      </c>
+      <c r="E129">
+        <v>23</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -2590,13 +2965,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.3170936489803768</v>
+        <v>-0.5801206842752227</v>
       </c>
       <c r="C130">
-        <v>-0.8611493475772309</v>
+        <v>-2.572603745728321</v>
       </c>
       <c r="D130">
-        <v>-1.302909601300431</v>
+        <v>-1.145710365737812</v>
+      </c>
+      <c r="E130">
+        <v>23</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -2607,16 +2985,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.3427755944582093</v>
+        <v>-0.3259843435226393</v>
       </c>
       <c r="C131">
-        <v>-0.3331658375368545</v>
+        <v>-0.7026006981348102</v>
       </c>
       <c r="D131">
-        <v>-0.7423154470205851</v>
+        <v>-0.6863326581536581</v>
+      </c>
+      <c r="E131">
+        <v>23</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2624,13 +3005,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.5907711571255418</v>
+        <v>-0.7075857224181892</v>
       </c>
       <c r="C132">
-        <v>-0.8201215073827883</v>
+        <v>-2.281156940771149</v>
       </c>
       <c r="D132">
-        <v>-1.375647478251974</v>
+        <v>-1.044920986971047</v>
+      </c>
+      <c r="E132">
+        <v>23</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -2641,13 +3025,16 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.07532325233130555</v>
+        <v>-0.2651845366937432</v>
       </c>
       <c r="C133">
-        <v>-0.6864845033171852</v>
+        <v>-1.801640091698326</v>
       </c>
       <c r="D133">
-        <v>-0.9551291801155555</v>
+        <v>-0.8864953286168523</v>
+      </c>
+      <c r="E133">
+        <v>23</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -2658,13 +3045,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.03106053655455709</v>
+        <v>-0.3511312690826416</v>
       </c>
       <c r="C134">
-        <v>-0.5588581709402074</v>
+        <v>-1.021968902792568</v>
       </c>
       <c r="D134">
-        <v>-0.7722068293182741</v>
+        <v>-0.7556750535905485</v>
+      </c>
+      <c r="E134">
+        <v>23</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -2675,13 +3065,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-0.08810374594369175</v>
+        <v>-0.2818054846656499</v>
       </c>
       <c r="C135">
-        <v>-0.6430151225647361</v>
+        <v>-1.611755679457253</v>
       </c>
       <c r="D135">
-        <v>-0.9137964347805889</v>
+        <v>-0.8535093842942951</v>
+      </c>
+      <c r="E135">
+        <v>23</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -2692,13 +3085,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.3199340259194602</v>
+        <v>-0.03817525014578099</v>
       </c>
       <c r="C136">
-        <v>-1.474496976622006</v>
+        <v>-4.79952360767258</v>
       </c>
       <c r="D136">
-        <v>-1.581270366560193</v>
+        <v>-1.416517442305619</v>
+      </c>
+      <c r="E136">
+        <v>23</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -2709,13 +3105,16 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.01414020295539786</v>
+        <v>-0.1488379008903969</v>
       </c>
       <c r="C137">
-        <v>-0.9907701685843283</v>
+        <v>-3.130830977385843</v>
       </c>
       <c r="D137">
-        <v>-1.244458397460322</v>
+        <v>-1.117396938874753</v>
+      </c>
+      <c r="E137">
+        <v>23</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -2726,13 +3125,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.5576367957680735</v>
+        <v>-0.4072405658775834</v>
       </c>
       <c r="C138">
-        <v>-1.406856883481945</v>
+        <v>-6.110587426478079</v>
       </c>
       <c r="D138">
-        <v>-1.96559436220156</v>
+        <v>-1.806465847144616</v>
+      </c>
+      <c r="E138">
+        <v>23</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -2743,13 +3145,16 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.4590148614669464</v>
+        <v>-0.4064536721187986</v>
       </c>
       <c r="C139">
-        <v>-1.687193136453736</v>
+        <v>-5.089341171103807</v>
       </c>
       <c r="D139">
-        <v>-1.723875932095605</v>
+        <v>-1.628381557444115</v>
+      </c>
+      <c r="E139">
+        <v>23</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -2760,13 +3165,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-0.07532325233130555</v>
+        <v>-0.2651845366937432</v>
       </c>
       <c r="C140">
-        <v>-0.6864845033171852</v>
+        <v>-1.801640091698326</v>
       </c>
       <c r="D140">
-        <v>-0.9551291801155555</v>
+        <v>-0.8864953286168523</v>
+      </c>
+      <c r="E140">
+        <v>23</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -2777,16 +3185,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0.8055700307543759</v>
+        <v>-0.7133676544784346</v>
       </c>
       <c r="C141">
-        <v>-0.6516461337231956</v>
+        <v>-2.862313004687372</v>
       </c>
       <c r="D141">
-        <v>-1.370760313475174</v>
+        <v>-1.280589151733424</v>
+      </c>
+      <c r="E141">
+        <v>23</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -2794,13 +3205,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.179348596183212</v>
+        <v>-0.2210056778367538</v>
       </c>
       <c r="C142">
-        <v>-0.9963337883450669</v>
+        <v>-2.710795073020769</v>
       </c>
       <c r="D142">
-        <v>-1.126610167875559</v>
+        <v>-1.053672054757489</v>
+      </c>
+      <c r="E142">
+        <v>23</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -2811,13 +3225,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.06254275871891934</v>
+        <v>-0.2485635887218366</v>
       </c>
       <c r="C143">
-        <v>-0.7299538840696342</v>
+        <v>-1.9915245039394</v>
       </c>
       <c r="D143">
-        <v>-0.9964619254505223</v>
+        <v>-0.9194812729394096</v>
+      </c>
+      <c r="E143">
+        <v>23</v>
       </c>
       <c r="F143">
         <v>0</v>
@@ -2828,16 +3245,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-1.027067114487464</v>
+        <v>-1.53707467686704</v>
       </c>
       <c r="C144">
-        <v>-0.7636653809919922</v>
+        <v>-3.168591539894043</v>
       </c>
       <c r="D144">
-        <v>-1.23515992876675</v>
+        <v>-1.463265549244884</v>
+      </c>
+      <c r="E144">
+        <v>23</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -2845,13 +3265,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.8322717147442287</v>
+        <v>-2.055949263148337</v>
       </c>
       <c r="C145">
-        <v>-2.525731211336363</v>
+        <v>-9.616234523137642</v>
       </c>
       <c r="D145">
-        <v>-2.518644864600705</v>
+        <v>-2.635876901069639</v>
+      </c>
+      <c r="E145">
+        <v>23</v>
       </c>
       <c r="F145">
         <v>0</v>
@@ -2862,13 +3285,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.3087564200855261</v>
+        <v>-0.6117429711931901</v>
       </c>
       <c r="C146">
-        <v>-1.232376770298066</v>
+        <v>-3.008718288921739</v>
       </c>
       <c r="D146">
-        <v>-1.289493911747033</v>
+        <v>-1.260042353048838</v>
+      </c>
+      <c r="E146">
+        <v>23</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -2879,13 +3305,16 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.498860936492867</v>
+        <v>0.1945180214609117</v>
       </c>
       <c r="C147">
-        <v>-2.083068307156292</v>
+        <v>-7.457905379047614</v>
       </c>
       <c r="D147">
-        <v>-2.159928801249726</v>
+        <v>-1.878320662821421</v>
+      </c>
+      <c r="E147">
+        <v>23</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -2896,13 +3325,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-1.196393570126657</v>
+        <v>-2.3231763306733</v>
       </c>
       <c r="C148">
-        <v>-1.955909476339822</v>
+        <v>-11.40548428727989</v>
       </c>
       <c r="D148">
-        <v>-3.525452769101366</v>
+        <v>-4.208901128202969</v>
+      </c>
+      <c r="E148">
+        <v>23</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -2913,13 +3345,16 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.1962689297823712</v>
+        <v>-0.2789634921362846</v>
       </c>
       <c r="C149">
-        <v>-0.5532945511794689</v>
+        <v>-1.442004807157642</v>
       </c>
       <c r="D149">
-        <v>-0.8900550589030369</v>
+        <v>-0.8193999377078125</v>
+      </c>
+      <c r="E149">
+        <v>24</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -2930,13 +3365,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-0.09010221056516982</v>
+        <v>-0.41149417065776</v>
       </c>
       <c r="C150">
-        <v>-1.25860184134563</v>
+        <v>-4.247534511722677</v>
       </c>
       <c r="D150">
-        <v>-1.622550348424469</v>
+        <v>-1.453125338642719</v>
+      </c>
+      <c r="E150">
+        <v>24</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -2947,13 +3385,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.02420127788176074</v>
+        <v>-0.1987007448061167</v>
       </c>
       <c r="C151">
-        <v>-0.8603620263269812</v>
+        <v>-2.561177740662622</v>
       </c>
       <c r="D151">
-        <v>-1.120460161455422</v>
+        <v>-1.018439105907081</v>
+      </c>
+      <c r="E151">
+        <v>24</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -2964,13 +3405,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.3361027093056354</v>
+        <v>-0.6895205562735647</v>
       </c>
       <c r="C152">
-        <v>-1.278611869521778</v>
+        <v>-3.591502828102918</v>
       </c>
       <c r="D152">
-        <v>-1.683386285141501</v>
+        <v>-1.263550228660767</v>
+      </c>
+      <c r="E152">
+        <v>24</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -2981,13 +3425,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.4993824958489264</v>
+        <v>-0.1892760469058984</v>
       </c>
       <c r="C153">
-        <v>-1.982137468047384</v>
+        <v>-6.801065165922627</v>
       </c>
       <c r="D153">
-        <v>-2.070008770276161</v>
+        <v>-1.935904018755663</v>
+      </c>
+      <c r="E153">
+        <v>24</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -2998,13 +3445,16 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.6861194147708098</v>
+        <v>-0.9289660260547454</v>
       </c>
       <c r="C154">
-        <v>-1.050254468292435</v>
+        <v>-2.36105551511576</v>
       </c>
       <c r="D154">
-        <v>-1.575532378993146</v>
+        <v>-0.9907676494777413</v>
+      </c>
+      <c r="E154">
+        <v>24</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -3015,16 +3465,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.7535163631245101</v>
+        <v>-0.8053622399828935</v>
       </c>
       <c r="C155">
-        <v>-0.7135026408564284</v>
+        <v>-1.75595420139862</v>
       </c>
       <c r="D155">
-        <v>-1.330075146712672</v>
+        <v>-0.9283582011980089</v>
+      </c>
+      <c r="E155">
+        <v>24</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3032,16 +3485,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-0.8022183843154562</v>
+        <v>-0.8531744676684827</v>
       </c>
       <c r="C156">
-        <v>-0.4594678737607614</v>
+        <v>-0.7937946863122263</v>
       </c>
       <c r="D156">
-        <v>-1.091545711224029</v>
+        <v>-0.7720616203450248</v>
+      </c>
+      <c r="E156">
+        <v>24</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3049,13 +3505,16 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-0.3938975689077541</v>
+        <v>-0.3924681354102658</v>
       </c>
       <c r="C157">
-        <v>-0.1592883145270584</v>
+        <v>0.05693695082948495</v>
       </c>
       <c r="D157">
-        <v>-0.5769844656807184</v>
+        <v>-0.554388880863429</v>
+      </c>
+      <c r="E157">
+        <v>24</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -3066,13 +3525,16 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.4468009383101157</v>
+        <v>-0.1602058710078578</v>
       </c>
       <c r="C158">
-        <v>-1.349652454125398</v>
+        <v>-3.809834466584286</v>
       </c>
       <c r="D158">
-        <v>-1.33942390097053</v>
+        <v>-1.253834725220684</v>
+      </c>
+      <c r="E158">
+        <v>24</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3083,13 +3545,16 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.2566524044869382</v>
+        <v>-0.3056259086608704</v>
       </c>
       <c r="C159">
-        <v>-2.166036728775786</v>
+        <v>-8.201738814234265</v>
       </c>
       <c r="D159">
-        <v>-2.402114039033472</v>
+        <v>-2.265749349364884</v>
+      </c>
+      <c r="E159">
+        <v>24</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3100,13 +3565,16 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.09716248751181433</v>
+        <v>-0.3220526038660132</v>
       </c>
       <c r="C160">
-        <v>-1.677622530270828</v>
+        <v>-5.755160897355957</v>
       </c>
       <c r="D160">
-        <v>-1.957347561292567</v>
+        <v>-1.712250163150873</v>
+      </c>
+      <c r="E160">
+        <v>24</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -3117,13 +3585,16 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-1.705568503048752</v>
+        <v>-2.201812096708948</v>
       </c>
       <c r="C161">
-        <v>-1.770780968249105</v>
+        <v>-7.690945182074602</v>
       </c>
       <c r="D161">
-        <v>-2.226682639544923</v>
+        <v>-2.256697877208138</v>
+      </c>
+      <c r="E161">
+        <v>24</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -3134,13 +3605,16 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.4143806924125469</v>
+        <v>-0.3458782912281958</v>
       </c>
       <c r="C162">
-        <v>-0.9612098372337257</v>
+        <v>-1.890856804232085</v>
       </c>
       <c r="D162">
-        <v>-0.9085050781634484</v>
+        <v>-0.9250987842590361</v>
+      </c>
+      <c r="E162">
+        <v>24</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -3151,16 +3625,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-1.046980463657927</v>
+        <v>-1.612158188422655</v>
       </c>
       <c r="C163">
-        <v>-0.7660409924283137</v>
+        <v>-3.983902680377427</v>
       </c>
       <c r="D163">
-        <v>-1.517505750037303</v>
+        <v>-1.874343836803019</v>
+      </c>
+      <c r="E163">
+        <v>24</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3168,13 +3645,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.1751486765181509</v>
+        <v>-1.218783958123709</v>
       </c>
       <c r="C164">
-        <v>-5.760243651964372</v>
+        <v>-23.59939443453792</v>
       </c>
       <c r="D164">
-        <v>-5.591070656070116</v>
+        <v>-5.397681396865567</v>
+      </c>
+      <c r="E164">
+        <v>24</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3185,13 +3665,16 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-0.2773090023622582</v>
+        <v>-0.5318577653946222</v>
       </c>
       <c r="C165">
-        <v>-1.430017327394675</v>
+        <v>-6.860046561817105</v>
       </c>
       <c r="D165">
-        <v>-2.070029190881903</v>
+        <v>-2.238757279318541</v>
+      </c>
+      <c r="E165">
+        <v>24</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -3202,13 +3685,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.1125653923299604</v>
+        <v>-0.6563181138771589</v>
       </c>
       <c r="C166">
-        <v>-2.591929479581809</v>
+        <v>-10.46415343962819</v>
       </c>
       <c r="D166">
-        <v>-2.830030603253824</v>
+        <v>-2.833288436700477</v>
+      </c>
+      <c r="E166">
+        <v>24</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3219,13 +3705,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.1962689297823712</v>
+        <v>-0.2789634921362846</v>
       </c>
       <c r="C167">
-        <v>-0.5532945511794689</v>
+        <v>-1.442004807157642</v>
       </c>
       <c r="D167">
-        <v>-0.8900550589030369</v>
+        <v>-0.8193999377078125</v>
+      </c>
+      <c r="E167">
+        <v>24</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3236,13 +3725,16 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.1095248931816911</v>
+        <v>-0.1683008413916687</v>
       </c>
       <c r="C168">
-        <v>-1.037021359217147</v>
+        <v>-3.11069743744438</v>
       </c>
       <c r="D168">
-        <v>-1.226867028002907</v>
+        <v>-1.118520441138679</v>
+      </c>
+      <c r="E168">
+        <v>24</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -3253,13 +3745,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0.5391672427716209</v>
+        <v>-1.005015645849214</v>
       </c>
       <c r="C169">
-        <v>-0.913951992570576</v>
+        <v>-2.450623077130661</v>
       </c>
       <c r="D169">
-        <v>-1.43057860910517</v>
+        <v>-1.198349320579675</v>
+      </c>
+      <c r="E169">
+        <v>24</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3270,13 +3765,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.0219774837762482</v>
+        <v>-1.088872228488576</v>
       </c>
       <c r="C170">
-        <v>-1.945341285858276</v>
+        <v>-3.991609764747487</v>
       </c>
       <c r="D170">
-        <v>-1.980819162255556</v>
+        <v>-1.253124791407386</v>
+      </c>
+      <c r="E170">
+        <v>25</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -3287,16 +3785,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-1.071183708684526</v>
+        <v>-1.876931640934743</v>
       </c>
       <c r="C171">
-        <v>-2.229763127154071</v>
+        <v>-3.236318126926295</v>
       </c>
       <c r="D171">
-        <v>-1.267559506800747</v>
+        <v>-0.4490871220385073</v>
+      </c>
+      <c r="E171">
+        <v>25</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3304,16 +3805,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-0.7734804506560303</v>
+        <v>-1.333570676124203</v>
       </c>
       <c r="C172">
-        <v>-1.314632218335416</v>
+        <v>-1.892274550320814</v>
       </c>
       <c r="D172">
-        <v>-1.736667007262026</v>
+        <v>-0.8109184815558721</v>
+      </c>
+      <c r="E172">
+        <v>25</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3321,16 +3825,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.2974466788550025</v>
+        <v>-1.504367397655139</v>
       </c>
       <c r="C173">
-        <v>-2.906571046536622</v>
+        <v>-5.404116465593246</v>
       </c>
       <c r="D173">
-        <v>-2.609691792421037</v>
+        <v>-1.377466827310803</v>
+      </c>
+      <c r="E173">
+        <v>25</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3338,13 +3845,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-0.6269956590568843</v>
+        <v>-0.608198301379952</v>
       </c>
       <c r="C174">
-        <v>-0.906998207432424</v>
+        <v>-4.868193167601778</v>
       </c>
       <c r="D174">
-        <v>-1.665180656566048</v>
+        <v>-1.819376781838025</v>
+      </c>
+      <c r="E174">
+        <v>25</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3355,16 +3865,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.6007777310411886</v>
+        <v>-0.6394487718577386</v>
       </c>
       <c r="C175">
-        <v>-0.3240583746909393</v>
+        <v>-0.8853839097964559</v>
       </c>
       <c r="D175">
-        <v>-0.9197475102895645</v>
+        <v>-0.8591471579575674</v>
+      </c>
+      <c r="E175">
+        <v>25</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3372,16 +3885,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.6919804122670971</v>
+        <v>-0.8512038449014012</v>
       </c>
       <c r="C176">
-        <v>-0.5441855546914713</v>
+        <v>-0.9618086330826062</v>
       </c>
       <c r="D176">
-        <v>-1.110941763172424</v>
+        <v>-0.8073483133987531</v>
+      </c>
+      <c r="E176">
+        <v>25</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3389,13 +3905,16 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.1809407232691043</v>
+        <v>-0.4788218312340078</v>
       </c>
       <c r="C177">
-        <v>-0.6603692821593098</v>
+        <v>-2.117119764369328</v>
       </c>
       <c r="D177">
-        <v>-1.063602375440094</v>
+        <v>-1.118533866308487</v>
+      </c>
+      <c r="E177">
+        <v>25</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3406,13 +3925,16 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-0.3044341136210507</v>
+        <v>-0.2761214996069194</v>
       </c>
       <c r="C178">
-        <v>-0.4635739797942016</v>
+        <v>-1.272253934858031</v>
       </c>
       <c r="D178">
-        <v>-0.8663136830254851</v>
+        <v>-0.7852904911213299</v>
+      </c>
+      <c r="E178">
+        <v>25</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -3423,13 +3945,16 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0.3869105505926755</v>
+        <v>-0.4751884624054079</v>
       </c>
       <c r="C179">
-        <v>-0.6045547642270952</v>
+        <v>-2.17012429813328</v>
       </c>
       <c r="D179">
-        <v>-1.130650823168734</v>
+        <v>-1.107653721020835</v>
+      </c>
+      <c r="E179">
+        <v>25</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -3440,13 +3965,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1.644835756519016</v>
+        <v>-0.3899081497371221</v>
       </c>
       <c r="C180">
-        <v>-5.644486399230884</v>
+        <v>-17.01085812989815</v>
       </c>
       <c r="D180">
-        <v>-4.920691287903691</v>
+        <v>-3.472555836895238</v>
+      </c>
+      <c r="E180">
+        <v>25</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -3457,13 +3985,16 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.1920687455950756</v>
+        <v>-0.8911506155262635</v>
       </c>
       <c r="C181">
-        <v>-2.818455268310974</v>
+        <v>-7.939372744731215</v>
       </c>
       <c r="D181">
-        <v>-2.30176757981991</v>
+        <v>-1.842088505016122</v>
+      </c>
+      <c r="E181">
+        <v>25</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -3474,13 +4005,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0.2557278712664869</v>
+        <v>-1.88400969477259</v>
       </c>
       <c r="C182">
-        <v>-3.533213363922675</v>
+        <v>-11.91469919193024</v>
       </c>
       <c r="D182">
-        <v>-3.591028955953353</v>
+        <v>-3.359421198288123</v>
+      </c>
+      <c r="E182">
+        <v>25</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -3491,13 +4025,16 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-0.183488436169985</v>
+        <v>-0.262342544164378</v>
       </c>
       <c r="C183">
-        <v>-0.5967639319319179</v>
+        <v>-1.631889219398716</v>
       </c>
       <c r="D183">
-        <v>-0.9313878042380036</v>
+        <v>-0.8523858820303698</v>
+      </c>
+      <c r="E183">
+        <v>25</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -3508,13 +4045,16 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-0.7171942344429507</v>
+        <v>-0.8705867919396242</v>
       </c>
       <c r="C184">
-        <v>-0.3820924395552597</v>
+        <v>-0.3811548680075904</v>
       </c>
       <c r="D184">
-        <v>-0.9594231422828704</v>
+        <v>-0.7158463747236381</v>
+      </c>
+      <c r="E184">
+        <v>25</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -3525,16 +4065,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-1.037904390936304</v>
+        <v>-1.361744329306446</v>
       </c>
       <c r="C185">
-        <v>-0.5844388051955636</v>
+        <v>-1.234660532882111</v>
       </c>
       <c r="D185">
-        <v>-1.01493011103694</v>
+        <v>-0.9882754853848502</v>
+      </c>
+      <c r="E185">
+        <v>25</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -3542,13 +4085,16 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0.3579415510166287</v>
+        <v>-0.2714233749667831</v>
       </c>
       <c r="C186">
-        <v>-0.8526944547652552</v>
+        <v>-3.690805930358206</v>
       </c>
       <c r="D186">
-        <v>-1.432554033394885</v>
+        <v>-1.382975068987989</v>
+      </c>
+      <c r="E186">
+        <v>25</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -3559,13 +4105,16 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0.8805454470913114</v>
+        <v>-1.648700748842435</v>
       </c>
       <c r="C187">
-        <v>-1.59654489915274</v>
+        <v>-4.213196076150791</v>
       </c>
       <c r="D187">
-        <v>-2.178674060722628</v>
+        <v>-1.83647237736682</v>
+      </c>
+      <c r="E187">
+        <v>25</v>
       </c>
       <c r="F187">
         <v>0</v>
@@ -3576,13 +4125,16 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.4340204446977295</v>
+        <v>-0.1768268189797644</v>
       </c>
       <c r="C188">
-        <v>-1.306183073372948</v>
+        <v>-3.619950054343212</v>
       </c>
       <c r="D188">
-        <v>-1.298091155635563</v>
+        <v>-1.220848780898126</v>
+      </c>
+      <c r="E188">
+        <v>25</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -3593,13 +4145,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.3938975689077541</v>
+        <v>-0.3924681354102658</v>
       </c>
       <c r="C189">
-        <v>-0.1592883145270584</v>
+        <v>0.05693695082948495</v>
       </c>
       <c r="D189">
-        <v>-0.5769844656807184</v>
+        <v>-0.554388880863429</v>
+      </c>
+      <c r="E189">
+        <v>25</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -3610,13 +4165,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.1478663740188497</v>
+        <v>-0.1184379974759489</v>
       </c>
       <c r="C190">
-        <v>-1.167429501474494</v>
+        <v>-3.680350674167602</v>
       </c>
       <c r="D190">
-        <v>-1.350865264007807</v>
+        <v>-1.21747827410635</v>
+      </c>
+      <c r="E190">
+        <v>25</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -3627,13 +4185,16 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.5476170858363579</v>
+        <v>-0.9462137359296767</v>
       </c>
       <c r="C191">
-        <v>-1.099183853354196</v>
+        <v>-4.023607249224031</v>
       </c>
       <c r="D191">
-        <v>-1.42100423860848</v>
+        <v>-1.510319633847721</v>
+      </c>
+      <c r="E191">
+        <v>25</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -3644,13 +4205,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.06112321725920433</v>
+        <v>-0.9282948609772121</v>
       </c>
       <c r="C192">
-        <v>-3.993881086720603</v>
+        <v>-12.61541960034998</v>
       </c>
       <c r="D192">
-        <v>-3.707934046959203</v>
+        <v>-2.863813612224706</v>
+      </c>
+      <c r="E192">
+        <v>25</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -3661,13 +4225,16 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.5021928481266911</v>
+        <v>-0.3453613925113694</v>
       </c>
       <c r="C193">
-        <v>-1.805927867650449</v>
+        <v>-5.654941581592157</v>
       </c>
       <c r="D193">
-        <v>-1.837735078932475</v>
+        <v>-1.73008629883536</v>
+      </c>
+      <c r="E193">
+        <v>26</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -3678,13 +4245,16 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.1392257203932366</v>
+        <v>-0.3482892765532764</v>
       </c>
       <c r="C194">
-        <v>-0.4691375995549401</v>
+        <v>-0.8522180304929577</v>
       </c>
       <c r="D194">
-        <v>-0.7484654534407222</v>
+        <v>-0.7215656070040659</v>
+      </c>
+      <c r="E194">
+        <v>26</v>
       </c>
       <c r="F194">
         <v>0</v>
@@ -3695,13 +4265,16 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.1323664617204402</v>
+        <v>-0.1958587522767515</v>
       </c>
       <c r="C195">
-        <v>-0.770641454941714</v>
+        <v>-2.391426868363011</v>
       </c>
       <c r="D195">
-        <v>-1.09671878557787</v>
+        <v>-0.9843296593205988</v>
+      </c>
+      <c r="E195">
+        <v>26</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -3712,13 +4285,16 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>2.135057211418651</v>
+        <v>0.4567491820734831</v>
       </c>
       <c r="C196">
-        <v>-4.03188458870885</v>
+        <v>-13.08258613928188</v>
       </c>
       <c r="D196">
-        <v>-3.212556103687301</v>
+        <v>-2.915490466251726</v>
+      </c>
+      <c r="E196">
+        <v>26</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -3729,13 +4305,16 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.2218299170071436</v>
+        <v>-0.3122053880800979</v>
       </c>
       <c r="C197">
-        <v>-0.4663557896745708</v>
+        <v>-1.062235982675495</v>
       </c>
       <c r="D197">
-        <v>-0.8073895682331036</v>
+        <v>-0.7534280490626979</v>
+      </c>
+      <c r="E197">
+        <v>26</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -3746,13 +4325,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.1707079425575988</v>
+        <v>-0.2457215961924714</v>
       </c>
       <c r="C198">
-        <v>-0.6402333126843669</v>
+        <v>-1.82177363163979</v>
       </c>
       <c r="D198">
-        <v>-0.9727205495729703</v>
+        <v>-0.8853718263529271</v>
+      </c>
+      <c r="E198">
+        <v>26</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -3763,13 +4345,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>-0.1962689297823712</v>
+        <v>-0.2789634921362846</v>
       </c>
       <c r="C199">
-        <v>-0.5532945511794689</v>
+        <v>-1.442004807157642</v>
       </c>
       <c r="D199">
-        <v>-0.8900550589030369</v>
+        <v>-0.8193999377078125</v>
+      </c>
+      <c r="E199">
+        <v>26</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -3780,13 +4365,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.115431793627375</v>
+        <v>-0.008206353935617638</v>
       </c>
       <c r="C200">
-        <v>-2.232949118576224</v>
+        <v>-6.557432950493077</v>
       </c>
       <c r="D200">
-        <v>-1.871458233707956</v>
+        <v>-1.754241401378669</v>
+      </c>
+      <c r="E200">
+        <v>26</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -3797,13 +4385,16 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-0.4829929716114175</v>
+        <v>-0.5095571124276814</v>
       </c>
       <c r="C201">
-        <v>-0.8572533579680115</v>
+        <v>-2.993218625269805</v>
       </c>
       <c r="D201">
-        <v>-1.422206272194913</v>
+        <v>-1.209042834365994</v>
+      </c>
+      <c r="E201">
+        <v>26</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -3814,13 +4405,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.319919691425554</v>
+        <v>0.2577288136148883</v>
       </c>
       <c r="C202">
-        <v>-2.928459210615409</v>
+        <v>-9.595583546350257</v>
       </c>
       <c r="D202">
-        <v>-2.532782159067422</v>
+        <v>-2.282016510539586</v>
+      </c>
+      <c r="E202">
+        <v>26</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -3831,13 +4425,16 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.3044341136210507</v>
+        <v>-0.2761214996069194</v>
       </c>
       <c r="C203">
-        <v>-0.4635739797942016</v>
+        <v>-1.272253934858031</v>
       </c>
       <c r="D203">
-        <v>-0.8663136830254851</v>
+        <v>-0.7852904911213299</v>
+      </c>
+      <c r="E203">
+        <v>26</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -3848,13 +4445,16 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.6536938623870153</v>
+        <v>-0.02954244831328967</v>
       </c>
       <c r="C204">
-        <v>-2.71585491906115</v>
+        <v>-10.59077722457097</v>
       </c>
       <c r="D204">
-        <v>-2.825416213270826</v>
+        <v>-2.725942583614061</v>
+      </c>
+      <c r="E204">
+        <v>26</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -3865,13 +4465,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.2346104106195298</v>
+        <v>-0.3288263360520045</v>
       </c>
       <c r="C205">
-        <v>-0.4228864089221218</v>
+        <v>-0.8723515704344208</v>
       </c>
       <c r="D205">
-        <v>-0.7660568228981369</v>
+        <v>-0.7204421047401406</v>
+      </c>
+      <c r="E205">
+        <v>26</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -3882,13 +4485,16 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-0.1271084672607337</v>
+        <v>-0.2956464383751152</v>
       </c>
       <c r="C206">
-        <v>-1.294397518576103</v>
+        <v>-4.820531008271464</v>
       </c>
       <c r="D206">
-        <v>-1.722135155904944</v>
+        <v>-1.562339718529841</v>
+      </c>
+      <c r="E206">
+        <v>26</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -3899,16 +4505,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>-0.3555560880705955</v>
+        <v>-0.3426052914945459</v>
       </c>
       <c r="C207">
-        <v>-0.2896964567844055</v>
+        <v>-0.5127162858937364</v>
       </c>
       <c r="D207">
-        <v>-0.7009827016856184</v>
+        <v>-0.6533467138311008</v>
+      </c>
+      <c r="E207">
+        <v>26</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -3916,13 +4525,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.03876316644696376</v>
+        <v>-0.4038361055277266</v>
       </c>
       <c r="C208">
-        <v>-0.5181706000681277</v>
+        <v>-0.6220665383689578</v>
       </c>
       <c r="D208">
-        <v>-0.671949969190926</v>
+        <v>-0.6908266672093593</v>
+      </c>
+      <c r="E208">
+        <v>26</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -3933,13 +4545,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1.430582552805645</v>
+        <v>0.1747960073042618</v>
       </c>
       <c r="C209">
-        <v>-3.399965289130034</v>
+        <v>-11.79556355325464</v>
       </c>
       <c r="D209">
-        <v>-3.0514758513814</v>
+        <v>-2.8411138388299</v>
+      </c>
+      <c r="E209">
+        <v>26</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -3950,13 +4565,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>10.53143423328206</v>
+        <v>2.180424616474065</v>
       </c>
       <c r="C210">
-        <v>-19.35944845807858</v>
+        <v>-71.04957443960497</v>
       </c>
       <c r="D210">
-        <v>-14.97469277236885</v>
+        <v>-14.62254204532469</v>
+      </c>
+      <c r="E210">
+        <v>26</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -3967,13 +4585,16 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>2.045593756131948</v>
+        <v>0.3404025462701367</v>
       </c>
       <c r="C211">
-        <v>-3.727598923441707</v>
+        <v>-11.75339525359436</v>
       </c>
       <c r="D211">
-        <v>-2.923226886342534</v>
+        <v>-2.684588855993825</v>
+      </c>
+      <c r="E211">
+        <v>26</v>
       </c>
       <c r="F211">
         <v>0</v>
@@ -3984,13 +4605,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1.566518015378741</v>
+        <v>-0.3036116646994085</v>
       </c>
       <c r="C212">
-        <v>-3.211645569304175</v>
+        <v>-9.313114179642001</v>
       </c>
       <c r="D212">
-        <v>-2.610355434814817</v>
+        <v>-2.371662790447935</v>
+      </c>
+      <c r="E212">
+        <v>26</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -4001,13 +4625,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.2058476071411909</v>
+        <v>0.1004763186882024</v>
       </c>
       <c r="C213">
-        <v>-1.642810879871063</v>
+        <v>-5.97909716100195</v>
       </c>
       <c r="D213">
-        <v>-1.864449577484822</v>
+        <v>-1.612186103713112</v>
+      </c>
+      <c r="E213">
+        <v>26</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -4018,13 +4645,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>2.039102550042192</v>
+        <v>0.1872296807795426</v>
       </c>
       <c r="C214">
-        <v>-4.428345776763029</v>
+        <v>-14.59353287751112</v>
       </c>
       <c r="D214">
-        <v>-3.709524578064347</v>
+        <v>-3.307380367437758</v>
+      </c>
+      <c r="E214">
+        <v>26</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4035,13 +4665,16 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1.309713141211241</v>
+        <v>-0.2945557437015708</v>
       </c>
       <c r="C215">
-        <v>-3.67090256296614</v>
+        <v>-11.15426743151092</v>
       </c>
       <c r="D215">
-        <v>-3.214730973606872</v>
+        <v>-2.616506261913016</v>
+      </c>
+      <c r="E215">
+        <v>26</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4052,13 +4685,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-0.2788731263962783</v>
+        <v>-0.2428796036631062</v>
       </c>
       <c r="C216">
-        <v>-0.5505127412990996</v>
+        <v>-1.652022759340179</v>
       </c>
       <c r="D216">
-        <v>-0.9489791736954184</v>
+        <v>-0.8512623797664445</v>
+      </c>
+      <c r="E216">
+        <v>27</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4069,13 +4705,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.3199340259194602</v>
+        <v>-0.03817525014578099</v>
       </c>
       <c r="C217">
-        <v>-1.474496976622006</v>
+        <v>-4.79952360767258</v>
       </c>
       <c r="D217">
-        <v>-1.581270366560193</v>
+        <v>-1.416517442305619</v>
+      </c>
+      <c r="E217">
+        <v>27</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -4086,13 +4725,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-0.2021901647219611</v>
+        <v>-0.1431539158316664</v>
       </c>
       <c r="C218">
-        <v>-0.8113290258137937</v>
+        <v>-2.791329232786622</v>
       </c>
       <c r="D218">
-        <v>-1.196975645705218</v>
+        <v>-1.049178045701788</v>
+      </c>
+      <c r="E218">
+        <v>27</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4103,13 +4745,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.2117688420807807</v>
+        <v>-0.03533325761641576</v>
       </c>
       <c r="C219">
-        <v>-1.384776405236739</v>
+        <v>-4.629772735372971</v>
       </c>
       <c r="D219">
-        <v>-1.557528990682641</v>
+        <v>-1.382407995719137</v>
+      </c>
+      <c r="E219">
+        <v>27</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4120,13 +4765,16 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>-0.1962689297823712</v>
+        <v>-0.2789634921362846</v>
       </c>
       <c r="C220">
-        <v>-0.5532945511794689</v>
+        <v>-1.442004807157642</v>
       </c>
       <c r="D220">
-        <v>-0.8900550589030369</v>
+        <v>-0.8193999377078125</v>
+      </c>
+      <c r="E220">
+        <v>27</v>
       </c>
       <c r="F220">
         <v>0</v>
@@ -4137,13 +4785,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.3130747672466638</v>
+        <v>-0.1906057744223058</v>
       </c>
       <c r="C221">
-        <v>-1.172993121235232</v>
+        <v>-3.260314769802528</v>
       </c>
       <c r="D221">
-        <v>-1.233017034423045</v>
+        <v>-1.153753389989086</v>
+      </c>
+      <c r="E221">
+        <v>27</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -4154,13 +4805,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.6461396555493554</v>
+        <v>0.1704943926751485</v>
       </c>
       <c r="C222">
-        <v>-2.614831064751508</v>
+        <v>-10.02839060761158</v>
       </c>
       <c r="D222">
-        <v>-2.738112923278138</v>
+        <v>-2.509668527582161</v>
+      </c>
+      <c r="E222">
+        <v>27</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -4171,13 +4825,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.3130747672466638</v>
+        <v>-0.1906057744223058</v>
       </c>
       <c r="C223">
-        <v>-1.172993121235232</v>
+        <v>-3.260314769802528</v>
       </c>
       <c r="D223">
-        <v>-1.233017034423045</v>
+        <v>-1.153753389989086</v>
+      </c>
+      <c r="E223">
+        <v>27</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4188,13 +4845,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-0.2660926327838921</v>
+        <v>-0.2262586556911995</v>
       </c>
       <c r="C224">
-        <v>-0.5939821220515487</v>
+        <v>-1.841907171581253</v>
       </c>
       <c r="D224">
-        <v>-0.9903119190303851</v>
+        <v>-0.8842483240890018</v>
+      </c>
+      <c r="E224">
+        <v>27</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4205,13 +4865,16 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.8470414277672648</v>
+        <v>-0.3572462613456567</v>
       </c>
       <c r="C225">
-        <v>-1.320092122774795</v>
+        <v>-2.569860293430527</v>
       </c>
       <c r="D225">
-        <v>-1.003470581673656</v>
+        <v>-1.061536570604967</v>
+      </c>
+      <c r="E225">
+        <v>27</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4222,16 +4885,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.3555560880705955</v>
+        <v>-0.3426052914945459</v>
       </c>
       <c r="C226">
-        <v>-0.2896964567844055</v>
+        <v>-0.5127162858937364</v>
       </c>
       <c r="D226">
-        <v>-0.7009827016856184</v>
+        <v>-0.6533467138311008</v>
+      </c>
+      <c r="E226">
+        <v>27</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4239,13 +4905,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.6511757442010926</v>
+        <v>-0.9712852954967424</v>
       </c>
       <c r="C227">
-        <v>-0.573538450183197</v>
+        <v>-0.5862232260682252</v>
       </c>
       <c r="D227">
-        <v>-1.071519438053259</v>
+        <v>-0.7260184764761232</v>
+      </c>
+      <c r="E227">
+        <v>27</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -4256,13 +4925,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>1.314867180890943</v>
+        <v>0.02360327045828653</v>
       </c>
       <c r="C228">
-        <v>-3.010408492509511</v>
+        <v>-10.08718281826138</v>
       </c>
       <c r="D228">
-        <v>-2.680929584676418</v>
+        <v>-2.543847924437802</v>
+      </c>
+      <c r="E228">
+        <v>27</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -4273,13 +4945,16 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.3199340259194602</v>
+        <v>-0.03817525014578099</v>
       </c>
       <c r="C229">
-        <v>-1.474496976622006</v>
+        <v>-4.79952360767258</v>
       </c>
       <c r="D229">
-        <v>-1.581270366560193</v>
+        <v>-1.416517442305619</v>
+      </c>
+      <c r="E229">
+        <v>27</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -4290,16 +4965,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.2729518914566884</v>
+        <v>-0.3786891799677243</v>
       </c>
       <c r="C230">
-        <v>-0.2924782666647747</v>
+        <v>-0.3026983337111995</v>
       </c>
       <c r="D230">
-        <v>-0.6420585868932369</v>
+        <v>-0.6214842717724688</v>
+      </c>
+      <c r="E230">
+        <v>27</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4307,13 +4985,16 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.7980660065068746</v>
+        <v>-0.7913218516508593</v>
       </c>
       <c r="C231">
-        <v>-0.1521799386294309</v>
+        <v>0.01206097676488734</v>
       </c>
       <c r="D231">
-        <v>-0.8103394251066709</v>
+        <v>-0.6715110821813498</v>
+      </c>
+      <c r="E231">
+        <v>27</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -4324,13 +5005,16 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.3683365816829817</v>
+        <v>-0.3592262394664525</v>
       </c>
       <c r="C232">
-        <v>-0.2462270760319564</v>
+        <v>-0.3228318736526626</v>
       </c>
       <c r="D232">
-        <v>-0.6596499563506517</v>
+        <v>-0.6203607695085436</v>
+      </c>
+      <c r="E232">
+        <v>27</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -4341,13 +5025,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.2176900770203706</v>
+        <v>-0.1711428339210339</v>
       </c>
       <c r="C233">
-        <v>-1.126741930602414</v>
+        <v>-3.280448309743991</v>
       </c>
       <c r="D233">
-        <v>-1.250608403880459</v>
+        <v>-1.152629887725161</v>
+      </c>
+      <c r="E233">
+        <v>27</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -4358,13 +5045,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.1862889798334321</v>
+        <v>-0.1412238388311626</v>
       </c>
       <c r="C234">
-        <v>-1.611139317835962</v>
+        <v>-6.081664005608364</v>
       </c>
       <c r="D234">
-        <v>-1.906756451468386</v>
+        <v>-1.814324276791525</v>
+      </c>
+      <c r="E234">
+        <v>27</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -4375,13 +5065,16 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.08988514089650856</v>
+        <v>-0.3373523136401002</v>
       </c>
       <c r="C235">
-        <v>-0.6920481230779237</v>
+        <v>-1.381604187333253</v>
       </c>
       <c r="D235">
-        <v>-0.8372809505307927</v>
+        <v>-0.8227704444995885</v>
+      </c>
+      <c r="E235">
+        <v>27</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -4392,13 +5085,16 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>1.026906362073878</v>
+        <v>0.1636871108421791</v>
       </c>
       <c r="C236">
-        <v>-2.48820178333018</v>
+        <v>-8.116775328304593</v>
       </c>
       <c r="D236">
-        <v>-2.237302935302519</v>
+        <v>-2.015881951431277</v>
+      </c>
+      <c r="E236">
+        <v>27</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -4409,16 +5105,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>-0.6059580012180824</v>
+        <v>-0.6384234637426734</v>
       </c>
       <c r="C237">
-        <v>-0.2622450622717793</v>
+        <v>-0.6891307706148696</v>
       </c>
       <c r="D237">
-        <v>-0.8624819105476929</v>
+        <v>-0.8304777840149113</v>
+      </c>
+      <c r="E237">
+        <v>27</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -4426,16 +5125,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.4977563847983777</v>
+        <v>-0.8821087004098667</v>
       </c>
       <c r="C238">
-        <v>-0.6283497851995119</v>
+        <v>-0.9186466773176288</v>
       </c>
       <c r="D238">
-        <v>-1.068516817709002</v>
+        <v>-0.8115573953720133</v>
+      </c>
+      <c r="E238">
+        <v>27</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -4443,13 +5145,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.1282266217336672</v>
+        <v>-0.2874894697243803</v>
       </c>
       <c r="C239">
-        <v>-0.8224562653352708</v>
+        <v>-1.951257424056474</v>
       </c>
       <c r="D239">
-        <v>-0.9612791865356927</v>
+        <v>-0.9217282774672603</v>
+      </c>
+      <c r="E239">
+        <v>27</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -4460,13 +5165,16 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.3299951008458231</v>
+        <v>-0.3093633955507327</v>
       </c>
       <c r="C240">
-        <v>-0.3766352182893035</v>
+        <v>-0.892485110375884</v>
       </c>
       <c r="D240">
-        <v>-0.7836481923555517</v>
+        <v>-0.7193186024762154</v>
+      </c>
+      <c r="E240">
+        <v>27</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -4477,13 +5185,16 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.1198019728200796</v>
+        <v>-0.4021339117697372</v>
       </c>
       <c r="C241">
-        <v>-0.8843867065276315</v>
+        <v>-3.068857726280338</v>
       </c>
       <c r="D241">
-        <v>-1.276059867353802</v>
+        <v>-1.281893925964946</v>
+      </c>
+      <c r="E241">
+        <v>27</v>
       </c>
       <c r="F241">
         <v>0</v>
@@ -4494,13 +5205,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.179348596183212</v>
+        <v>-0.2210056778367538</v>
       </c>
       <c r="C242">
-        <v>-0.9963337883450669</v>
+        <v>-2.710795073020769</v>
       </c>
       <c r="D242">
-        <v>-1.126610167875559</v>
+        <v>-1.053672054757489</v>
+      </c>
+      <c r="E242">
+        <v>27</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -4511,16 +5225,19 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>-0.1775672012303952</v>
+        <v>-0.3981521204689962</v>
       </c>
       <c r="C243">
-        <v>-0.338729457297593</v>
+        <v>-0.2825647937697364</v>
       </c>
       <c r="D243">
-        <v>-0.6244672174358221</v>
+        <v>-0.6226077740363941</v>
+      </c>
+      <c r="E243">
+        <v>27</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -4528,13 +5245,16 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.1323664617204402</v>
+        <v>-0.1958587522767515</v>
       </c>
       <c r="C244">
-        <v>-0.770641454941714</v>
+        <v>-2.391426868363011</v>
       </c>
       <c r="D244">
-        <v>-1.09671878557787</v>
+        <v>-0.9843296593205988</v>
+      </c>
+      <c r="E244">
+        <v>27</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -4545,13 +5265,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.2090494233947574</v>
+        <v>-0.2955844401081912</v>
       </c>
       <c r="C245">
-        <v>-0.5098251704270198</v>
+        <v>-1.252120394916568</v>
       </c>
       <c r="D245">
-        <v>-0.8487223135680703</v>
+        <v>-0.7864139933852552</v>
+      </c>
+      <c r="E245">
+        <v>27</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -4562,16 +5285,19 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>-0.8209391225367686</v>
+        <v>-0.9340081618532852</v>
       </c>
       <c r="C246">
-        <v>-0.3954513185913935</v>
+        <v>-2.904290590308317</v>
       </c>
       <c r="D246">
-        <v>-1.230697642154122</v>
+        <v>-1.566711276439097</v>
+      </c>
+      <c r="E246">
+        <v>27</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
